--- a/bulk-upload-templates/de/e-label_excel_import_de.xlsx
+++ b/bulk-upload-templates/de/e-label_excel_import_de.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxbauer/workspace/vs_code/misc/e-label.io/bulk-upload-templates/de/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF31B3B4-523C-4E45-8DB9-FAB85C23105F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C931A1F-6F19-2049-AAEB-FB319F2D6BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="17960" xr2:uid="{42B7CF4C-2976-4744-81A6-4766AD4B0A9A}"/>
   </bookViews>

--- a/bulk-upload-templates/de/e-label_excel_import_de.xlsx
+++ b/bulk-upload-templates/de/e-label_excel_import_de.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxbauer/workspace/vs_code/misc/e-label.io/bulk-upload-templates/de/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C931A1F-6F19-2049-AAEB-FB319F2D6BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AC1BCE-F19C-CA46-9053-9DFB40C9DB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="17960" xr2:uid="{42B7CF4C-2976-4744-81A6-4766AD4B0A9A}"/>
   </bookViews>
@@ -1031,7 +1031,7 @@
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
